--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H2">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I2">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J2">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N2">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O2">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P2">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q2">
-        <v>519.8431787055638</v>
+        <v>2.6546195118515</v>
       </c>
       <c r="R2">
-        <v>519.8431787055638</v>
+        <v>10.618478047406</v>
       </c>
       <c r="S2">
-        <v>0.04257184522382428</v>
+        <v>0.0001862520095235255</v>
       </c>
       <c r="T2">
-        <v>0.04257184522382428</v>
+        <v>0.0001514930870271713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H3">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I3">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J3">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N3">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O3">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P3">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q3">
-        <v>6382.263075545528</v>
+        <v>612.2892737887057</v>
       </c>
       <c r="R3">
-        <v>6382.263075545528</v>
+        <v>3673.735642732234</v>
       </c>
       <c r="S3">
-        <v>0.5226666944181352</v>
+        <v>0.04295911604044066</v>
       </c>
       <c r="T3">
-        <v>0.5226666944181352</v>
+        <v>0.0524129306435977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.055213886722</v>
+        <v>465.273773</v>
       </c>
       <c r="H4">
-        <v>41.055213886722</v>
+        <v>930.547546</v>
       </c>
       <c r="I4">
-        <v>0.05003609932118146</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J4">
-        <v>0.05003609932118146</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P4">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q4">
-        <v>46.01760689854312</v>
+        <v>1.405747159490667</v>
       </c>
       <c r="R4">
-        <v>46.01760689854312</v>
+        <v>8.434482956943999</v>
       </c>
       <c r="S4">
-        <v>0.003768548898407616</v>
+        <v>9.862928836626851E-05</v>
       </c>
       <c r="T4">
-        <v>0.003768548898407616</v>
+        <v>0.0001203341811247288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.055213886722</v>
+        <v>465.273773</v>
       </c>
       <c r="H5">
-        <v>41.055213886722</v>
+        <v>930.547546</v>
       </c>
       <c r="I5">
-        <v>0.05003609932118146</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J5">
-        <v>0.05003609932118146</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N5">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O5">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P5">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q5">
-        <v>564.9712939676543</v>
+        <v>7.254238486100667</v>
       </c>
       <c r="R5">
-        <v>564.9712939676543</v>
+        <v>43.525430916604</v>
       </c>
       <c r="S5">
-        <v>0.04626755042277385</v>
+        <v>0.0005089680421495856</v>
       </c>
       <c r="T5">
-        <v>0.04626755042277385</v>
+        <v>0.0006209742925781185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.387396348091175</v>
+        <v>465.273773</v>
       </c>
       <c r="H6">
-        <v>0.387396348091175</v>
+        <v>930.547546</v>
       </c>
       <c r="I6">
-        <v>0.0004721398408308401</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J6">
-        <v>0.0004721398408308401</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N6">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O6">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P6">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q6">
-        <v>0.4342214099670409</v>
+        <v>66.85255189098967</v>
       </c>
       <c r="R6">
-        <v>0.4342214099670409</v>
+        <v>401.115311345938</v>
       </c>
       <c r="S6">
-        <v>3.555996772722444E-05</v>
+        <v>0.004690473371375237</v>
       </c>
       <c r="T6">
-        <v>3.555996772722444E-05</v>
+        <v>0.005722684220692601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.387396348091175</v>
+        <v>465.273773</v>
       </c>
       <c r="H7">
-        <v>0.387396348091175</v>
+        <v>930.547546</v>
       </c>
       <c r="I7">
-        <v>0.0004721398408308401</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J7">
-        <v>0.0004721398408308401</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N7">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O7">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P7">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q7">
-        <v>5.331060183081906</v>
+        <v>7235.242366042252</v>
       </c>
       <c r="R7">
-        <v>5.331060183081906</v>
+        <v>28940.96946416901</v>
       </c>
       <c r="S7">
-        <v>0.0004365798731036156</v>
+        <v>0.5076352464256657</v>
       </c>
       <c r="T7">
-        <v>0.0004365798731036156</v>
+        <v>0.4128987964294112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8383444300946979</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H8">
-        <v>0.8383444300946979</v>
+        <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.001021733446215077</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J8">
-        <v>0.001021733446215077</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N8">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O8">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P8">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q8">
-        <v>0.9396761282531764</v>
+        <v>0.2625090698503333</v>
       </c>
       <c r="R8">
-        <v>0.9396761282531764</v>
+        <v>1.575054419102</v>
       </c>
       <c r="S8">
-        <v>7.695348968919445E-05</v>
+        <v>1.841802245462858E-05</v>
       </c>
       <c r="T8">
-        <v>7.695348968919445E-05</v>
+        <v>2.247119173955822E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8383444300946979</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H9">
-        <v>0.8383444300946979</v>
+        <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.001021733446215077</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J9">
-        <v>0.001021733446215077</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N9">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O9">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P9">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q9">
-        <v>11.53667202338851</v>
+        <v>60.54784387141978</v>
       </c>
       <c r="R9">
-        <v>11.53667202338851</v>
+        <v>544.9305948427781</v>
       </c>
       <c r="S9">
-        <v>0.000944779956525883</v>
+        <v>0.004248125783383249</v>
       </c>
       <c r="T9">
-        <v>0.000944779956525883</v>
+        <v>0.007774486857695412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.730676096981</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H10">
-        <v>241.730676096981</v>
+        <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.2946095994418071</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J10">
-        <v>0.2946095994418071</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N10">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O10">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P10">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q10">
-        <v>270.9489532472655</v>
+        <v>0.1390110249831111</v>
       </c>
       <c r="R10">
-        <v>270.9489532472655</v>
+        <v>1.251099224848</v>
       </c>
       <c r="S10">
-        <v>0.02218899347669046</v>
+        <v>9.753217978485876E-06</v>
       </c>
       <c r="T10">
-        <v>0.02218899347669046</v>
+        <v>1.784934553740739E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>241.730676096981</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H11">
-        <v>241.730676096981</v>
+        <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.2946095994418071</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J11">
-        <v>0.2946095994418071</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N11">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O11">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P11">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q11">
-        <v>3326.517631670573</v>
+        <v>0.7173545545631111</v>
       </c>
       <c r="R11">
-        <v>3326.517631670573</v>
+        <v>6.456190991068</v>
       </c>
       <c r="S11">
-        <v>0.2724206059651167</v>
+        <v>5.033065067582727E-05</v>
       </c>
       <c r="T11">
-        <v>0.2724206059651167</v>
+        <v>9.211002737937921E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>72.71531212246509</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H12">
-        <v>72.71531212246509</v>
+        <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.08862188830800599</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J12">
-        <v>0.08862188830800599</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N12">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O12">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P12">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q12">
-        <v>81.50449923337709</v>
+        <v>6.610891367171778</v>
       </c>
       <c r="R12">
-        <v>81.50449923337709</v>
+        <v>59.49802230454601</v>
       </c>
       <c r="S12">
-        <v>0.006674699348847101</v>
+        <v>0.0004638298620123867</v>
       </c>
       <c r="T12">
-        <v>0.006674699348847101</v>
+        <v>0.0008488541418729112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,1540 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>72.71531212246509</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H13">
-        <v>72.71531212246509</v>
+        <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.08862188830800599</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J13">
-        <v>0.08862188830800599</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N13">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O13">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P13">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q13">
-        <v>1000.653999622144</v>
+        <v>715.4760730010503</v>
       </c>
       <c r="R13">
-        <v>1000.653999622144</v>
+        <v>4292.856438006302</v>
       </c>
       <c r="S13">
-        <v>0.0819471889591589</v>
+        <v>0.05019885364645085</v>
       </c>
       <c r="T13">
-        <v>0.0819471889591589</v>
+        <v>0.06124588392560768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4389783333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.316935</v>
+      </c>
+      <c r="I14">
+        <v>0.0005246513098029694</v>
+      </c>
+      <c r="J14">
+        <v>0.0006678836204898773</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0057055</v>
+      </c>
+      <c r="N14">
+        <v>0.011411</v>
+      </c>
+      <c r="O14">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P14">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q14">
+        <v>0.002504590880833333</v>
+      </c>
+      <c r="R14">
+        <v>0.015027545285</v>
+      </c>
+      <c r="S14">
+        <v>1.757257801002708E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.143969423397177E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4389783333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.316935</v>
+      </c>
+      <c r="I15">
+        <v>0.0005246513098029694</v>
+      </c>
+      <c r="J15">
+        <v>0.0006678836204898773</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.947929</v>
+      </c>
+      <c r="O15">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P15">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q15">
+        <v>0.5776850975127777</v>
+      </c>
+      <c r="R15">
+        <v>5.199165877615</v>
+      </c>
+      <c r="S15">
+        <v>4.05312361350441E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.417613760181398E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4389783333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.316935</v>
+      </c>
+      <c r="I16">
+        <v>0.0005246513098029694</v>
+      </c>
+      <c r="J16">
+        <v>0.0006678836204898773</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P16">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q16">
+        <v>0.001326299871111111</v>
+      </c>
+      <c r="R16">
+        <v>0.01193669884</v>
+      </c>
+      <c r="S16">
+        <v>9.30551497577691E-08</v>
+      </c>
+      <c r="T16">
+        <v>1.703000512985015E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4389783333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.316935</v>
+      </c>
+      <c r="I17">
+        <v>0.0005246513098029694</v>
+      </c>
+      <c r="J17">
+        <v>0.0006678836204898773</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.046774</v>
+      </c>
+      <c r="O17">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P17">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q17">
+        <v>0.006844257521111111</v>
+      </c>
+      <c r="R17">
+        <v>0.06159831769</v>
+      </c>
+      <c r="S17">
+        <v>4.802031746215681E-07</v>
+      </c>
+      <c r="T17">
+        <v>8.788189099113098E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4389783333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.316935</v>
+      </c>
+      <c r="I18">
+        <v>0.0005246513098029694</v>
+      </c>
+      <c r="J18">
+        <v>0.0006678836204898773</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.431053</v>
+      </c>
+      <c r="O18">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P18">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q18">
+        <v>0.06307430917277777</v>
+      </c>
+      <c r="R18">
+        <v>0.567668782555</v>
+      </c>
+      <c r="S18">
+        <v>4.425386305001727E-06</v>
+      </c>
+      <c r="T18">
+        <v>8.098890998717231E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4389783333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.316935</v>
+      </c>
+      <c r="I19">
+        <v>0.0005246513098029694</v>
+      </c>
+      <c r="J19">
+        <v>0.0006678836204898773</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.5505055</v>
+      </c>
+      <c r="N19">
+        <v>31.101011</v>
+      </c>
+      <c r="O19">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P19">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q19">
+        <v>6.826334986880833</v>
+      </c>
+      <c r="R19">
+        <v>40.958009921285</v>
+      </c>
+      <c r="S19">
+        <v>0.000478945703258444</v>
+      </c>
+      <c r="T19">
+        <v>0.0005843450759857967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8994516666666666</v>
+      </c>
+      <c r="H20">
+        <v>2.698355</v>
+      </c>
+      <c r="I20">
+        <v>0.001074992680020952</v>
+      </c>
+      <c r="J20">
+        <v>0.00136847081045531</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0057055</v>
+      </c>
+      <c r="N20">
+        <v>0.011411</v>
+      </c>
+      <c r="O20">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P20">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q20">
+        <v>0.005131821484166666</v>
+      </c>
+      <c r="R20">
+        <v>0.030790928905</v>
+      </c>
+      <c r="S20">
+        <v>3.600561435169286E-07</v>
+      </c>
+      <c r="T20">
+        <v>4.392920389746562E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8994516666666666</v>
+      </c>
+      <c r="H21">
+        <v>2.698355</v>
+      </c>
+      <c r="I21">
+        <v>0.001074992680020952</v>
+      </c>
+      <c r="J21">
+        <v>0.00136847081045531</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.947929</v>
+      </c>
+      <c r="O21">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P21">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q21">
+        <v>1.183657106310556</v>
+      </c>
+      <c r="R21">
+        <v>10.652913956795</v>
+      </c>
+      <c r="S21">
+        <v>8.304712357191276E-05</v>
+      </c>
+      <c r="T21">
+        <v>0.0001519843817489419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8994516666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.698355</v>
+      </c>
+      <c r="I22">
+        <v>0.001074992680020952</v>
+      </c>
+      <c r="J22">
+        <v>0.00136847081045531</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P22">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q22">
+        <v>0.002717543302222222</v>
+      </c>
+      <c r="R22">
+        <v>0.02445788972</v>
+      </c>
+      <c r="S22">
+        <v>1.90666835207983E-07</v>
+      </c>
+      <c r="T22">
+        <v>3.489390098384264E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8994516666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.698355</v>
+      </c>
+      <c r="I23">
+        <v>0.001074992680020952</v>
+      </c>
+      <c r="J23">
+        <v>0.00136847081045531</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.046774</v>
+      </c>
+      <c r="O23">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P23">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q23">
+        <v>0.01402365075222222</v>
+      </c>
+      <c r="R23">
+        <v>0.12621285677</v>
+      </c>
+      <c r="S23">
+        <v>9.839199635942407E-07</v>
+      </c>
+      <c r="T23">
+        <v>1.800670040399665E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8994516666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.698355</v>
+      </c>
+      <c r="I24">
+        <v>0.001074992680020952</v>
+      </c>
+      <c r="J24">
+        <v>0.00136847081045531</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.431053</v>
+      </c>
+      <c r="O24">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P24">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q24">
+        <v>0.1292371130905555</v>
+      </c>
+      <c r="R24">
+        <v>1.163134017815</v>
+      </c>
+      <c r="S24">
+        <v>9.067465944054139E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.659435205294387E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8994516666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.698355</v>
+      </c>
+      <c r="I25">
+        <v>0.001074992680020952</v>
+      </c>
+      <c r="J25">
+        <v>0.00136847081045531</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.5505055</v>
+      </c>
+      <c r="N25">
+        <v>31.101011</v>
+      </c>
+      <c r="O25">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P25">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q25">
+        <v>13.98692808948417</v>
+      </c>
+      <c r="R25">
+        <v>83.921568536905</v>
+      </c>
+      <c r="S25">
+        <v>0.0009813434475626655</v>
+      </c>
+      <c r="T25">
+        <v>0.001197303175564211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>251.0450083333334</v>
+      </c>
+      <c r="H26">
+        <v>753.135025</v>
+      </c>
+      <c r="I26">
+        <v>0.3000400758767458</v>
+      </c>
+      <c r="J26">
+        <v>0.381952448081898</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0057055</v>
+      </c>
+      <c r="N26">
+        <v>0.011411</v>
+      </c>
+      <c r="O26">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P26">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q26">
+        <v>1.432337295045833</v>
+      </c>
+      <c r="R26">
+        <v>8.594023770274999</v>
+      </c>
+      <c r="S26">
+        <v>0.0001004948913871695</v>
+      </c>
+      <c r="T26">
+        <v>0.0001226103388010394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>251.0450083333334</v>
+      </c>
+      <c r="H27">
+        <v>753.135025</v>
+      </c>
+      <c r="I27">
+        <v>0.3000400758767458</v>
+      </c>
+      <c r="J27">
+        <v>0.381952448081898</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.947929</v>
+      </c>
+      <c r="O27">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P27">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q27">
+        <v>330.3692895681361</v>
+      </c>
+      <c r="R27">
+        <v>2973.323606113225</v>
+      </c>
+      <c r="S27">
+        <v>0.02317919528287072</v>
+      </c>
+      <c r="T27">
+        <v>0.04242020088094372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>251.0450083333334</v>
+      </c>
+      <c r="H28">
+        <v>753.135025</v>
+      </c>
+      <c r="I28">
+        <v>0.3000400758767458</v>
+      </c>
+      <c r="J28">
+        <v>0.381952448081898</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P28">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q28">
+        <v>0.7584906518444444</v>
+      </c>
+      <c r="R28">
+        <v>6.8264158666</v>
+      </c>
+      <c r="S28">
+        <v>5.32168197665004E-05</v>
+      </c>
+      <c r="T28">
+        <v>9.739199990295516E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>251.0450083333334</v>
+      </c>
+      <c r="H29">
+        <v>753.135025</v>
+      </c>
+      <c r="I29">
+        <v>0.3000400758767458</v>
+      </c>
+      <c r="J29">
+        <v>0.381952448081898</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.046774</v>
+      </c>
+      <c r="O29">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P29">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q29">
+        <v>3.914126406594445</v>
+      </c>
+      <c r="R29">
+        <v>35.22713765935001</v>
+      </c>
+      <c r="S29">
+        <v>0.000274620865816228</v>
+      </c>
+      <c r="T29">
+        <v>0.0005025831204171254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>251.0450083333334</v>
+      </c>
+      <c r="H30">
+        <v>753.135025</v>
+      </c>
+      <c r="I30">
+        <v>0.3000400758767458</v>
+      </c>
+      <c r="J30">
+        <v>0.381952448081898</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.431053</v>
+      </c>
+      <c r="O30">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P30">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q30">
+        <v>36.07123465903612</v>
+      </c>
+      <c r="R30">
+        <v>324.641111931325</v>
+      </c>
+      <c r="S30">
+        <v>0.002530810879392023</v>
+      </c>
+      <c r="T30">
+        <v>0.004631632141898558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>251.0450083333334</v>
+      </c>
+      <c r="H31">
+        <v>753.135025</v>
+      </c>
+      <c r="I31">
+        <v>0.3000400758767458</v>
+      </c>
+      <c r="J31">
+        <v>0.381952448081898</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.5505055</v>
+      </c>
+      <c r="N31">
+        <v>31.101011</v>
+      </c>
+      <c r="O31">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P31">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q31">
+        <v>3903.876782835046</v>
+      </c>
+      <c r="R31">
+        <v>23423.26069701028</v>
+      </c>
+      <c r="S31">
+        <v>0.2739017371375132</v>
+      </c>
+      <c r="T31">
+        <v>0.3341780295999346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H32">
+        <v>146.075767</v>
+      </c>
+      <c r="I32">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J32">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0057055</v>
+      </c>
+      <c r="N32">
+        <v>0.011411</v>
+      </c>
+      <c r="O32">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P32">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q32">
+        <v>0.41671764430925</v>
+      </c>
+      <c r="R32">
+        <v>1.666870577237</v>
+      </c>
+      <c r="S32">
+        <v>2.923752285779526E-05</v>
+      </c>
+      <c r="T32">
+        <v>2.378112647528468E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H33">
+        <v>146.075767</v>
+      </c>
+      <c r="I33">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J33">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.947929</v>
+      </c>
+      <c r="O33">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P33">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q33">
+        <v>96.11612612275717</v>
+      </c>
+      <c r="R33">
+        <v>576.696756736543</v>
+      </c>
+      <c r="S33">
+        <v>0.00674364878207886</v>
+      </c>
+      <c r="T33">
+        <v>0.00822769247782352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H34">
+        <v>146.075767</v>
+      </c>
+      <c r="I34">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J34">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P34">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q34">
+        <v>0.2206717920146666</v>
+      </c>
+      <c r="R34">
+        <v>1.324030752088</v>
+      </c>
+      <c r="S34">
+        <v>1.548265750492544E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.888985455893264E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H35">
+        <v>146.075767</v>
+      </c>
+      <c r="I35">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J35">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.046774</v>
+      </c>
+      <c r="O35">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P35">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q35">
+        <v>1.138757987609667</v>
+      </c>
+      <c r="R35">
+        <v>6.832547925658</v>
+      </c>
+      <c r="S35">
+        <v>7.989693536356824E-05</v>
+      </c>
+      <c r="T35">
+        <v>9.747948556261203E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H36">
+        <v>146.075767</v>
+      </c>
+      <c r="I36">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J36">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.431053</v>
+      </c>
+      <c r="O36">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P36">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q36">
+        <v>10.49439959877517</v>
+      </c>
+      <c r="R36">
+        <v>62.966397592651</v>
+      </c>
+      <c r="S36">
+        <v>0.000736302511636212</v>
+      </c>
+      <c r="T36">
+        <v>0.0008983372106345534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H37">
+        <v>146.075767</v>
+      </c>
+      <c r="I37">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J37">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.5505055</v>
+      </c>
+      <c r="N37">
+        <v>31.101011</v>
+      </c>
+      <c r="O37">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P37">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q37">
+        <v>1135.776009075109</v>
+      </c>
+      <c r="R37">
+        <v>4543.104036300437</v>
+      </c>
+      <c r="S37">
+        <v>0.07968771536351257</v>
+      </c>
+      <c r="T37">
+        <v>0.06481614898783807</v>
       </c>
     </row>
   </sheetData>
